--- a/class2/budget_exercise.xlsx
+++ b/class2/budget_exercise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="4160" windowWidth="21440" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,11 +193,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,7 +236,7 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -244,6 +247,7 @@
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -252,6 +256,7 @@
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -585,7 +590,7 @@
   <dimension ref="A4:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -644,7 +649,6 @@
         <v>151322550</v>
       </c>
       <c r="D10" s="5">
-        <f>(C10-B10)/B10</f>
         <v>1.4611990202440915E-2</v>
       </c>
     </row>
@@ -659,7 +663,6 @@
         <v>23246780</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:D16" si="0">(C11-B11)/B11</f>
         <v>8.1868536394444802E-2</v>
       </c>
     </row>
@@ -674,7 +677,6 @@
         <v>88541150</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
         <v>6.7130739173084458E-2</v>
       </c>
     </row>
@@ -689,7 +691,6 @@
         <v>11621900</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
         <v>1.3471207996218853E-2</v>
       </c>
     </row>
@@ -704,7 +705,6 @@
         <v>9412280</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
         <v>5.3480962294159178E-3</v>
       </c>
     </row>
@@ -719,7 +719,6 @@
         <v>6255520</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
         <v>-7.2312116183434097E-2</v>
       </c>
     </row>
@@ -734,7 +733,6 @@
         <v>18244920</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
         <v>6.6227356083512642E-2</v>
       </c>
     </row>
@@ -764,7 +762,6 @@
         <v>39432820</v>
       </c>
       <c r="C19" s="10">
-        <f>B19*1.05</f>
         <v>41404461</v>
       </c>
       <c r="D19" s="5"/>
@@ -777,7 +774,6 @@
         <v>9319120</v>
       </c>
       <c r="C20" s="10">
-        <f>B20*1.1</f>
         <v>10251032</v>
       </c>
       <c r="D20" s="5"/>
@@ -822,11 +818,9 @@
         <v>152497300</v>
       </c>
       <c r="C25" s="9">
-        <f>SUM(C11:C16)+397525</f>
         <v>157720075</v>
       </c>
       <c r="D25" s="12">
-        <f>C25-B25</f>
         <v>5222775</v>
       </c>
       <c r="E25" s="14"/>
@@ -839,11 +833,9 @@
         <v>85398488</v>
       </c>
       <c r="C26" s="10">
-        <f>C25*0.57</f>
         <v>89900442.749999985</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:D30" si="1">C26-B26</f>
         <v>4501954.7499999851</v>
       </c>
       <c r="E26" s="14"/>
@@ -856,11 +848,9 @@
         <v>38124325</v>
       </c>
       <c r="C27" s="10">
-        <f>C25*0.24</f>
         <v>37852818</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="1"/>
         <v>-271507</v>
       </c>
       <c r="E27" s="14"/>
@@ -873,11 +863,9 @@
         <v>17537189.5</v>
       </c>
       <c r="C28" s="10">
-        <f>C25*0.095</f>
         <v>14983407.125</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="1"/>
         <v>-2553782.375</v>
       </c>
       <c r="E28" s="14"/>
@@ -890,11 +878,9 @@
         <v>6862378.5</v>
       </c>
       <c r="C29" s="10">
-        <f>C25*0.045</f>
         <v>7097403.375</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="1"/>
         <v>235024.875</v>
       </c>
       <c r="E29" s="14"/>
@@ -907,11 +893,9 @@
         <v>4574919.0000000037</v>
       </c>
       <c r="C30" s="10">
-        <f>C25-SUM(C26:C29)</f>
         <v>7886003.75</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
         <v>3311084.7499999963</v>
       </c>
       <c r="E30" s="14"/>
